--- a/Documentation/Benchmark_20140112_142430.xlsx
+++ b/Documentation/Benchmark_20140112_142430.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="19155" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="19155" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark_20130123_163238" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -115,13 +115,13 @@
     <t>v 2.0</t>
   </si>
   <si>
-    <t>Spaltenbeschriftungen</t>
+    <t>Column Labels</t>
   </si>
   <si>
-    <t>Zeilenbeschriftungen</t>
+    <t>Row Labels</t>
   </si>
   <si>
-    <t>Gesamtergebnis</t>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -622,95 +622,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -814,7 +769,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -871,7 +826,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -899,7 +854,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -927,7 +882,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -970,7 +925,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1036,7 +991,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1102,7 +1057,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1154,11 +1109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48330240"/>
-        <c:axId val="48331776"/>
+        <c:axId val="158273920"/>
+        <c:axId val="158275456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48330240"/>
+        <c:axId val="158273920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,7 +1122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48331776"/>
+        <c:crossAx val="158275456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1175,7 +1130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48331776"/>
+        <c:axId val="158275456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48330240"/>
+        <c:crossAx val="158273920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1245,7 +1200,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1302,7 +1257,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1330,7 +1285,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1358,7 +1313,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1401,7 +1356,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1467,7 +1422,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1533,7 +1488,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1585,11 +1540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="58424704"/>
-        <c:axId val="90584192"/>
+        <c:axId val="164669696"/>
+        <c:axId val="164687872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58424704"/>
+        <c:axId val="164669696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90584192"/>
+        <c:crossAx val="164687872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90584192"/>
+        <c:axId val="164687872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58424704"/>
+        <c:crossAx val="164669696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1676,7 +1631,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-AT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1733,7 +1688,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1761,7 +1716,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1789,7 +1744,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1817,7 +1772,7 @@
               <a:pPr>
                 <a:defRPr/>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:dLblPos val="outEnd"/>
@@ -1860,7 +1815,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1926,7 +1881,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1992,7 +1947,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2058,7 +2013,7 @@
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2110,11 +2065,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="85679104"/>
-        <c:axId val="85693184"/>
+        <c:axId val="165816192"/>
+        <c:axId val="165817728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85679104"/>
+        <c:axId val="165816192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85693184"/>
+        <c:crossAx val="165817728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2131,7 +2086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85693184"/>
+        <c:axId val="165817728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,7 +2116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85679104"/>
+        <c:crossAx val="165816192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2306,7 +2261,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jasmine" refreshedDate="41651.640248495372" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Tamme" refreshedDate="41652.380362037038" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H21" sheet="Benchmark_20130123_163238"/>
   </cacheSource>
@@ -2562,7 +2517,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:E5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -2627,16 +2582,16 @@
     <dataField name="Sum of Average time (ms)" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="44">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="28">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="27">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="3">
@@ -2647,7 +2602,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2735,7 +2690,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:E5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -2800,16 +2755,16 @@
     <dataField name="Sum of Average time (µs)" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="39">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="23">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="22">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="3">
@@ -2820,7 +2775,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2944,7 +2899,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A1:F5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -3012,23 +2967,23 @@
     <dataField name="Sum of Average time (µs)" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="34">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="18">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="17">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3176,9 +3131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3216,7 +3171,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3288,7 +3243,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3464,11 +3419,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -4041,17 +3996,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4145,13 +4100,13 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4245,14 +4200,14 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documentation/Benchmark_20140112_142430.xlsx
+++ b/Documentation/Benchmark_20140112_142430.xlsx
@@ -1109,11 +1109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158273920"/>
-        <c:axId val="158275456"/>
+        <c:axId val="167321984"/>
+        <c:axId val="167323520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158273920"/>
+        <c:axId val="167321984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158275456"/>
+        <c:crossAx val="167323520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1130,7 +1130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158275456"/>
+        <c:axId val="167323520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158273920"/>
+        <c:crossAx val="167321984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1540,11 +1540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="164669696"/>
-        <c:axId val="164687872"/>
+        <c:axId val="167418112"/>
+        <c:axId val="167432192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164669696"/>
+        <c:axId val="167418112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +1553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164687872"/>
+        <c:crossAx val="167432192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1561,7 +1561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164687872"/>
+        <c:axId val="167432192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164669696"/>
+        <c:crossAx val="167418112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2065,11 +2065,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="165816192"/>
-        <c:axId val="165817728"/>
+        <c:axId val="167782272"/>
+        <c:axId val="167783808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165816192"/>
+        <c:axId val="167782272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165817728"/>
+        <c:crossAx val="167783808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2086,7 +2086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165817728"/>
+        <c:axId val="167783808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +2116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165816192"/>
+        <c:crossAx val="167782272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2261,7 +2261,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Tamme" refreshedDate="41652.380362037038" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="20">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Martin Tamme" refreshedDate="41652.383570833335" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H21" sheet="Benchmark_20130123_163238"/>
   </cacheSource>
@@ -2517,7 +2517,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A1:E5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -2690,7 +2690,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:E5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -2899,7 +2899,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A1:F5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -2987,7 +2987,7 @@
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="12">
+  <chartFormats count="16">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -3109,6 +3109,54 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="7" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3997,7 +4045,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
